--- a/public/assets/Compliance_Questions.xlsx
+++ b/public/assets/Compliance_Questions.xlsx
@@ -14,17 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>Section</t>
   </si>
   <si>
+    <t>Question ID</t>
+  </si>
+  <si>
     <t>Question</t>
   </si>
   <si>
     <t>Options</t>
   </si>
   <si>
+    <t>Score</t>
+  </si>
+  <si>
     <t>Registration &amp; Licensing</t>
   </si>
   <si>
@@ -37,6 +43,27 @@
     <t>Statutory Payments &amp; Returns</t>
   </si>
   <si>
+    <t>Workplace Governance</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
     <t>Is your business registered with MCA (Ministry of Corporate Affairs)?</t>
   </si>
   <si>
@@ -46,7 +73,7 @@
     <t>How many employees does your organization have?</t>
   </si>
   <si>
-    <t>Is your organization registered with ESIC?</t>
+    <t>Is your organization registered with ESI?</t>
   </si>
   <si>
     <t>Is your organization registered with EPFO?</t>
@@ -88,6 +115,12 @@
     <t>Are statutory dues (PF/ESIC/PT/Gratuity) remitted on time?</t>
   </si>
   <si>
+    <t>Is an Internal Complaints Committee (ICC) formed under POSH Act?</t>
+  </si>
+  <si>
+    <t>Have you conducted an annual labour audit?</t>
+  </si>
+  <si>
     <t>Yes, No, In Progress</t>
   </si>
   <si>
@@ -131,6 +164,9 @@
   </si>
   <si>
     <t>On Time and Accurate, Delayed, Irregular</t>
+  </si>
+  <si>
+    <t>Yes, No, Planning</t>
   </si>
 </sst>
 </file>
@@ -488,13 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,192 +540,334 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
